--- a/stats/PROMICE_positions_distance_stats.xlsx
+++ b/stats/PROMICE_positions_distance_stats.xlsx
@@ -441,17 +441,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>site name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>start</t>
+          <t>first valid date</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>latest valid date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -491,12 +491,12 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>elev0</t>
+          <t>first valid elevation, m</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>elev1</t>
+          <t>latest valid elevation, m</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
